--- a/Assets/Game/Editor/XLS_Report/Report.xlsx
+++ b/Assets/Game/Editor/XLS_Report/Report.xlsx
@@ -14,38 +14,35 @@
   <sheets>
     <sheet name="TableData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>idCol</t>
+  </si>
+  <si>
+    <t>stringCol</t>
+  </si>
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>stringCol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idCol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>id主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>StringCol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45b2667f-7701-488d-b9f6-928055de0f04</t>
   </si>
 </sst>
 </file>
@@ -55,24 +52,17 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -80,14 +70,12 @@
       <sz val="14"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -127,34 +115,41 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="7">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="差" xfId="0" builtinId="27"/>
+    <cellStyle name="常规" xfId="1" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -451,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -459,40 +454,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="10.453125" customWidth="1" style="2"/>
+    <col min="2" max="2" bestFit="1" width="14" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="35.25" customHeight="1" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="33.75" customHeight="1" s="4" customFormat="1">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="3" ht="17.5" s="6" customFormat="1">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="4" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>250961305</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -503,7 +506,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Assets/Game/Editor/XLS_Report/Report.xlsx
+++ b/Assets/Game/Editor/XLS_Report/Report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>idCol</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>45b2667f-7701-488d-b9f6-928055de0f04</t>
+  </si>
+  <si>
+    <t>d871f15f-dacb-429d-9f9c-87bb2b0c3851</t>
   </si>
 </sst>
 </file>
@@ -123,13 +126,16 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -454,48 +460,56 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="10.453125" customWidth="1" style="2"/>
-    <col min="2" max="2" bestFit="1" width="14" customWidth="1" style="2"/>
+    <col min="1" max="1" bestFit="1" width="10.453125" customWidth="1" style="3"/>
+    <col min="2" max="2" bestFit="1" width="14" customWidth="1" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="35.25" customHeight="1" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="33.75" customHeight="1" s="4" customFormat="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="33.75" customHeight="1" s="5" customFormat="1">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="17.5" s="6" customFormat="1">
-      <c r="A3" s="6" t="s">
+    <row r="3" ht="17.5" s="7" customFormat="1">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>250961305</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>-221766720</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Game/Editor/XLS_Report/Report.xlsx
+++ b/Assets/Game/Editor/XLS_Report/Report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>idCol</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>d871f15f-dacb-429d-9f9c-87bb2b0c3851</t>
+  </si>
+  <si>
+    <t>b5364cb3-ac6f-4a84-9852-99c694c6f477</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -512,6 +515,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>1660767388</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD3">

--- a/Assets/Game/Editor/XLS_Report/Report.xlsx
+++ b/Assets/Game/Editor/XLS_Report/Report.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="TableData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>idCol</t>
   </si>
@@ -40,15 +40,6 @@
   </si>
   <si>
     <t>StringCol</t>
-  </si>
-  <si>
-    <t>45b2667f-7701-488d-b9f6-928055de0f04</t>
-  </si>
-  <si>
-    <t>d871f15f-dacb-429d-9f9c-87bb2b0c3851</t>
-  </si>
-  <si>
-    <t>b5364cb3-ac6f-4a84-9852-99c694c6f477</t>
   </si>
 </sst>
 </file>
@@ -58,7 +49,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -69,6 +60,7 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -76,12 +68,21 @@
       <sz val="14"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -121,44 +122,36 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="差" xfId="0" builtinId="27"/>
-    <cellStyle name="常规" xfId="1" builtinId="0"/>
+    <cellStyle name="差" xfId="1" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -455,72 +448,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="10.453125" customWidth="1" style="3"/>
-    <col min="2" max="2" bestFit="1" width="14" customWidth="1" style="3"/>
+    <col min="1" max="1" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" s="4" customFormat="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="33.75" customHeight="1" s="5" customFormat="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:2" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="17.5" s="7" customFormat="1">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:2" s="5" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>250961305</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>-221766720</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3">
-        <v>1660767388</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -532,7 +501,6 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Game/Editor/XLS_Report/Report.xlsx
+++ b/Assets/Game/Editor/XLS_Report/Report.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="TableData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +49,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -60,7 +60,6 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -68,21 +67,18 @@
       <sz val="14"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -122,36 +118,42 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="差" xfId="0" builtinId="27"/>
+    <cellStyle name="常规" xfId="1" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -456,39 +458,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="10.453125" customWidth="1" style="3"/>
+    <col min="2" max="2" bestFit="1" width="14" customWidth="1" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="35.25" customHeight="1" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="33.75" customHeight="1" s="5" customFormat="1">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="5" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" ht="17.5" s="7" customFormat="1">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -501,6 +503,7 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>